--- a/Karnataka/Predicted_KA.xlsx
+++ b/Karnataka/Predicted_KA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\Arima &amp; Sarima - COVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3D76DFD1-C863-42C2-94BB-483F2634D8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0C57C214-F2FB-452B-81DD-B9FE194D6D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -49,48 +49,6 @@
     <t>Predicted_Deceased</t>
   </si>
   <si>
-    <t>2020-06-12</t>
-  </si>
-  <si>
-    <t>2020-06-13</t>
-  </si>
-  <si>
-    <t>2020-06-14</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>2020-06-19</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>2020-06-21</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>2020-06-25</t>
-  </si>
-  <si>
     <t>2020-06-26</t>
   </si>
   <si>
@@ -110,18 +68,6 @@
   </si>
   <si>
     <t>2020-07-02</t>
-  </si>
-  <si>
-    <t>2020-07-03</t>
-  </si>
-  <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>2020-07-05</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
   </si>
   <si>
     <t>MAPE</t>
@@ -191,22 +137,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:colOff>30479</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>611711</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDFEF58-5953-4D46-B109-82059D4E8FF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03C4876-4CAA-472E-923A-52532FFE2F31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -222,8 +168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="5036821"/>
-          <a:ext cx="6890591" cy="3657599"/>
+          <a:off x="30479" y="1851660"/>
+          <a:ext cx="7056121" cy="3895970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -235,22 +181,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>154542</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>121919</xdr:rowOff>
+      <xdr:colOff>600320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A699B0B-FA52-4958-A709-62A0EEDD60B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3067F2-D399-4E56-88FD-B1990486694A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -266,8 +212,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7162800" y="5021580"/>
-          <a:ext cx="6669642" cy="3649979"/>
+          <a:off x="7094220" y="1851661"/>
+          <a:ext cx="7184000" cy="3924299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -278,23 +224,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>556261</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>563881</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>30726</xdr:rowOff>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>147321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F85CBC2-621F-4C50-9C37-FCD4E373B1D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03410464-188A-41DD-91FD-3D189FD67D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,8 +256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3901441" y="8671560"/>
-          <a:ext cx="7170420" cy="3932166"/>
+          <a:off x="3276600" y="5783581"/>
+          <a:ext cx="7658100" cy="4254500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -665,22 +611,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>271</v>
+        <v>445</v>
       </c>
       <c r="C2">
-        <v>223.871454217077</v>
+        <v>469.63297674221201</v>
       </c>
       <c r="D2">
-        <v>464</v>
+        <v>246</v>
       </c>
       <c r="E2">
-        <v>244.63028404297901</v>
+        <v>327.78931290255099</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>3.80474723048673</v>
+        <v>9.6131046440458601</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,22 +634,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>308</v>
+        <v>918</v>
       </c>
       <c r="C3">
-        <v>281.31922061367499</v>
+        <v>497.77859155183597</v>
       </c>
       <c r="D3">
-        <v>208</v>
+        <v>371</v>
       </c>
       <c r="E3">
-        <v>164.18092290392801</v>
+        <v>387.083351375201</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>1.65717235629116</v>
+        <v>9.5353719172757305</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,22 +657,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>176</v>
+        <v>1267</v>
       </c>
       <c r="C4">
-        <v>355.99619690621802</v>
+        <v>589.26902080698596</v>
       </c>
       <c r="D4">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="E4">
-        <v>192.35609918296299</v>
+        <v>288.20713478718801</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>2.4821194815405798</v>
+        <v>11.548055069792101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,22 +680,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>213</v>
+        <v>1105</v>
       </c>
       <c r="C5">
-        <v>228.71727231828501</v>
+        <v>584.34788435799896</v>
       </c>
       <c r="D5">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E5">
-        <v>260.63440168604001</v>
+        <v>329.91529682529898</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>2.4694034981162201</v>
+        <v>10.0817897764628</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -757,22 +703,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>317</v>
+        <v>947</v>
       </c>
       <c r="C6">
-        <v>407.783613922558</v>
+        <v>567.50086152545998</v>
       </c>
       <c r="D6">
-        <v>322</v>
+        <v>235</v>
       </c>
       <c r="E6">
-        <v>239.590658209401</v>
+        <v>415.15438123544402</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>4.0002485391932296</v>
+        <v>10.6499240258822</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,22 +726,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>204</v>
+        <v>1272</v>
       </c>
       <c r="C7">
-        <v>215.748763189898</v>
+        <v>578.51412657756703</v>
       </c>
       <c r="D7">
-        <v>348</v>
+        <v>145</v>
       </c>
       <c r="E7">
-        <v>309.17762746469202</v>
+        <v>315.63563364230401</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>2.14731905544715</v>
+        <v>9.3008549908082898</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,451 +749,36 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>210</v>
+        <v>1502</v>
       </c>
       <c r="C8">
-        <v>315.13691644167102</v>
+        <v>667.890520417272</v>
       </c>
       <c r="D8">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="E8">
-        <v>318.98519339402498</v>
+        <v>384.14812767819899</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>3.01925236795975</v>
+        <v>11.140197679431999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>337</v>
-      </c>
-      <c r="C9">
-        <v>276.86909138623099</v>
-      </c>
-      <c r="D9">
-        <v>230</v>
-      </c>
-      <c r="E9">
-        <v>287.34076849335901</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>3.0099302420815999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>416</v>
-      </c>
-      <c r="C10">
-        <v>314.05227484244301</v>
-      </c>
-      <c r="D10">
-        <v>183</v>
-      </c>
-      <c r="E10">
-        <v>215.70035774100899</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>4.34676584131849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>453</v>
-      </c>
-      <c r="C11">
-        <v>468.07671936596398</v>
-      </c>
-      <c r="D11">
-        <v>226</v>
-      </c>
-      <c r="E11">
-        <v>289.71176239380497</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>2.4151086605471401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>249</v>
-      </c>
-      <c r="C12">
-        <v>498.03569362854603</v>
-      </c>
-      <c r="D12">
-        <v>111</v>
-      </c>
-      <c r="E12">
-        <v>253.988805871962</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>3.2744875114165599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>322</v>
-      </c>
-      <c r="C13">
-        <v>306.28530747994699</v>
-      </c>
-      <c r="D13">
-        <v>274</v>
-      </c>
-      <c r="E13">
-        <v>251.465607705303</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>3.2642585646840598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>397</v>
-      </c>
-      <c r="C14">
-        <v>507.352019242182</v>
-      </c>
-      <c r="D14">
-        <v>149</v>
-      </c>
-      <c r="E14">
-        <v>389.54306635994197</v>
-      </c>
-      <c r="F14">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>4.6529324645364403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>442</v>
-      </c>
-      <c r="C15">
-        <v>253.98426573840001</v>
-      </c>
-      <c r="D15">
-        <v>519</v>
-      </c>
-      <c r="E15">
-        <v>314.40399804299199</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>2.74231090959058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>445</v>
-      </c>
-      <c r="C16">
-        <v>367.11210363611701</v>
-      </c>
-      <c r="D16">
-        <v>246</v>
-      </c>
-      <c r="E16">
-        <v>427.36666774394001</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>3.6050442464610502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>918</v>
-      </c>
-      <c r="C17">
-        <v>332.96656895819501</v>
-      </c>
-      <c r="D17">
-        <v>371</v>
-      </c>
-      <c r="E17">
-        <v>355.69439989790999</v>
-      </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>3.5950575974827599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>1267</v>
-      </c>
-      <c r="C18">
-        <v>368.948570958267</v>
-      </c>
-      <c r="D18">
-        <v>220</v>
-      </c>
-      <c r="E18">
-        <v>389.57434705280502</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>4.96988057654894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>1105</v>
-      </c>
-      <c r="C19">
-        <v>589.86312661579598</v>
-      </c>
-      <c r="D19">
-        <v>176</v>
-      </c>
-      <c r="E19">
-        <v>280.26046104398199</v>
-      </c>
-      <c r="F19">
-        <v>19</v>
-      </c>
-      <c r="G19">
-        <v>3.0536384132201402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>947</v>
-      </c>
-      <c r="C20">
-        <v>590.22283237752504</v>
-      </c>
-      <c r="D20">
-        <v>235</v>
-      </c>
-      <c r="E20">
-        <v>384.12743475073898</v>
-      </c>
-      <c r="F20">
-        <v>20</v>
-      </c>
-      <c r="G20">
-        <v>3.9154754491060602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>1272</v>
-      </c>
-      <c r="C21">
-        <v>352.072864380841</v>
-      </c>
-      <c r="D21">
-        <v>145</v>
-      </c>
-      <c r="E21">
-        <v>324.84461337007201</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>3.90542405944452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>1502</v>
-      </c>
-      <c r="C22">
-        <v>571.15215852865299</v>
-      </c>
-      <c r="D22">
-        <v>271</v>
-      </c>
-      <c r="E22">
-        <v>338.51361816735698</v>
-      </c>
-      <c r="F22">
-        <v>19</v>
-      </c>
-      <c r="G22">
-        <v>5.2839479315636799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>1694</v>
-      </c>
-      <c r="C23">
-        <v>272.760449587518</v>
-      </c>
-      <c r="D23">
-        <v>471</v>
-      </c>
-      <c r="E23">
-        <v>440.21394522227899</v>
-      </c>
-      <c r="F23">
-        <v>21</v>
-      </c>
-      <c r="G23">
-        <v>3.3692075651795599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>1839</v>
-      </c>
-      <c r="C24">
-        <v>397.36489711533</v>
-      </c>
-      <c r="D24">
-        <v>439</v>
-      </c>
-      <c r="E24">
-        <v>393.26073217078101</v>
-      </c>
-      <c r="F24">
-        <v>42</v>
-      </c>
-      <c r="G24">
-        <v>4.2312840879659097</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>1925</v>
-      </c>
-      <c r="C25">
-        <v>365.191264003779</v>
-      </c>
-      <c r="D25">
-        <v>603</v>
-      </c>
-      <c r="E25">
-        <v>483.632293216665</v>
-      </c>
-      <c r="F25">
-        <v>37</v>
-      </c>
-      <c r="G25">
-        <v>4.2212499966738104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>1843</v>
-      </c>
-      <c r="C26">
-        <v>401.33438744001103</v>
-      </c>
-      <c r="D26">
-        <v>680</v>
-      </c>
-      <c r="E26">
-        <v>454.263318104657</v>
-      </c>
-      <c r="F26">
-        <v>30</v>
-      </c>
-      <c r="G26">
-        <v>5.5987850096693803</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
-        <v>2.3836989004059301E-2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.47582238151965E-2</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2.9385994619241702E-2</v>
+      <c r="C9" s="3">
+        <v>0.43149500403257302</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.56018743198820797</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.304190680267166</v>
       </c>
     </row>
   </sheetData>

--- a/Karnataka/Predicted_KA.xlsx
+++ b/Karnataka/Predicted_KA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0C57C214-F2FB-452B-81DD-B9FE194D6D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C133F086-F04D-43C8-B16B-5F35AADA98F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="6feedab0e373590346a9e42e2029e0e" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -139,20 +138,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>30479</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
+      <xdr:colOff>564124</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>47870</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03C4876-4CAA-472E-923A-52532FFE2F31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D8D09F-5773-4EE1-99C9-B365F0F1D1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -168,8 +167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30479" y="1851660"/>
-          <a:ext cx="7056121" cy="3895970"/>
+          <a:off x="30479" y="1844041"/>
+          <a:ext cx="7079225" cy="3901439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -181,22 +180,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>600320</xdr:colOff>
+      <xdr:colOff>518161</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>51583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3067F2-D399-4E56-88FD-B1990486694A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B5E83E-4996-454F-BF3A-981A5399E7AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -212,8 +211,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7094220" y="1851661"/>
-          <a:ext cx="7184000" cy="3924299"/>
+          <a:off x="7117081" y="1821181"/>
+          <a:ext cx="7078980" cy="3930162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -224,23 +223,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>147321</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03410464-188A-41DD-91FD-3D189FD67D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3C7B7B-1E62-4789-959B-512E1ADD46D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -256,7 +255,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3276600" y="5783581"/>
+          <a:off x="3368040" y="5775960"/>
           <a:ext cx="7658100" cy="4254500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -568,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -614,13 +613,13 @@
         <v>445</v>
       </c>
       <c r="C2">
-        <v>469.63297674221201</v>
+        <v>441.54972617761302</v>
       </c>
       <c r="D2">
         <v>246</v>
       </c>
       <c r="E2">
-        <v>327.78931290255099</v>
+        <v>297.24016385362</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -637,13 +636,13 @@
         <v>918</v>
       </c>
       <c r="C3">
-        <v>497.77859155183597</v>
+        <v>577.577299704182</v>
       </c>
       <c r="D3">
         <v>371</v>
       </c>
       <c r="E3">
-        <v>387.083351375201</v>
+        <v>389.56059552765601</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -660,13 +659,13 @@
         <v>1267</v>
       </c>
       <c r="C4">
-        <v>589.26902080698596</v>
+        <v>676.78679963207105</v>
       </c>
       <c r="D4">
         <v>220</v>
       </c>
       <c r="E4">
-        <v>288.20713478718801</v>
+        <v>245.30193993102799</v>
       </c>
       <c r="F4">
         <v>16</v>
@@ -683,13 +682,13 @@
         <v>1105</v>
       </c>
       <c r="C5">
-        <v>584.34788435799896</v>
+        <v>569.29822159733806</v>
       </c>
       <c r="D5">
         <v>176</v>
       </c>
       <c r="E5">
-        <v>329.91529682529898</v>
+        <v>387.88966291105902</v>
       </c>
       <c r="F5">
         <v>19</v>
@@ -706,13 +705,13 @@
         <v>947</v>
       </c>
       <c r="C6">
-        <v>567.50086152545998</v>
+        <v>644.77292106933101</v>
       </c>
       <c r="D6">
         <v>235</v>
       </c>
       <c r="E6">
-        <v>415.15438123544402</v>
+        <v>383.37618409376103</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -729,13 +728,13 @@
         <v>1272</v>
       </c>
       <c r="C7">
-        <v>578.51412657756703</v>
+        <v>739.71434539634902</v>
       </c>
       <c r="D7">
         <v>145</v>
       </c>
       <c r="E7">
-        <v>315.63563364230401</v>
+        <v>272.51160898181001</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -752,13 +751,13 @@
         <v>1502</v>
       </c>
       <c r="C8">
-        <v>667.890520417272</v>
+        <v>686.556282490748</v>
       </c>
       <c r="D8">
         <v>271</v>
       </c>
       <c r="E8">
-        <v>384.14812767819899</v>
+        <v>360.41154820110802</v>
       </c>
       <c r="F8">
         <v>19</v>
@@ -772,10 +771,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="3">
-        <v>0.43149500403257302</v>
+        <v>0.37281826609400198</v>
       </c>
       <c r="E9" s="3">
-        <v>0.56018743198820797</v>
+        <v>0.48827994312577899</v>
       </c>
       <c r="G9" s="3">
         <v>0.304190680267166</v>
